--- a/xlsx/阿波罗计划_intext.xlsx
+++ b/xlsx/阿波罗计划_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="947">
   <si>
     <t>阿波罗计划</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%BE%B3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>港澳地區</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_阿波罗计划</t>
+    <t>港澳地区</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_阿波罗计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國太空總署</t>
+    <t>美国太空总署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%89%E4%BA%BA%E8%88%AA%E5%A4%A9</t>
   </si>
   <si>
-    <t>載人航天</t>
+    <t>载人航天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%99%B8%E6%9C%88%E7%90%83</t>
   </si>
   <si>
-    <t>登陸月球</t>
+    <t>登陆月球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%9711%E5%8F%B7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%851%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅1號</t>
+    <t>阿波罗1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94%C2%B7%E6%A0%BC%E9%87%8C%E6%A3%AE</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%8513%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅13號</t>
+    <t>阿波罗13号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
@@ -317,9 +317,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%971%E5%8F%B7</t>
   </si>
   <si>
-    <t>阿波罗1号</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%B7%AF</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%9E%E8%B5%9B</t>
   </si>
   <si>
-    <t>太空竞赛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%AE%89%E5%A4%9C</t>
   </si>
   <si>
@@ -449,9 +443,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%9713%E5%8F%B7</t>
   </si>
   <si>
-    <t>阿波罗13号</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%9712%E5%8F%B7</t>
   </si>
   <si>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8A</t>
   </si>
   <si>
-    <t>月球車</t>
+    <t>月球车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E8%8E%B1%E5%BE%B7%C2%B7%E6%B2%83%E5%B0%94%E7%99%BB</t>
@@ -827,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2%E5%BD%88%E7%8F%A0</t>
   </si>
   <si>
-    <t>藍色彈珠</t>
+    <t>蓝色弹珠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -923,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E5%AF%A6%E9%A9%97%E5%AE%A42%E8%99%9F</t>
   </si>
   <si>
-    <t>天空實驗室2號</t>
+    <t>天空实验室2号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E5%AE%9E%E9%AA%8C%E5%AE%A43%E5%8F%B7</t>
@@ -977,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲太空競賽</t>
+    <t>亚洲太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E7%BA%AA%E5%BD%95%E5%88%97%E8%A1%A8</t>
@@ -1019,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%88%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E9%96%8B%E7%99%BC%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>宇宙航空研究開發機構</t>
+    <t>宇宙航空研究开发机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%BD%B1%E5%83%8F</t>
@@ -1199,15 +1190,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>太空天氣</t>
+    <t>太空天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E4%BA%BA%E8%88%AA%E5%A4%A9</t>
   </si>
   <si>
-    <t>载人航天</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%9C%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -1253,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%AA%E8%A1%8C%E5%B0%8D%E4%BA%BA%E9%AB%94%E7%9A%84%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>太空航行對人體的影響</t>
+    <t>太空航行对人体的影响</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space_adaptation_syndrome</t>
@@ -1295,31 +1283,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%88%9F%E9%A3%9B%E8%88%B9</t>
   </si>
   <si>
-    <t>神舟飛船</t>
+    <t>神舟飞船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
   </si>
   <si>
-    <t>中國太空站</t>
+    <t>中国太空站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>東方計劃</t>
+    <t>东方计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>禮炮計劃</t>
+    <t>礼炮计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%87%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>上升計劃</t>
+    <t>上升计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%AD%90%E5%BA%A7%E8%AE%A1%E5%88%92</t>
@@ -1337,13 +1325,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>太空梭計劃</t>
+    <t>太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E6%A2%AD%E6%A9%9F-%E5%92%8C%E5%B9%B3%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>穿梭機-和平號計劃</t>
+    <t>穿梭机-和平号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%8F%B7%E7%A9%BA%E9%97%B4%E7%AB%99</t>
@@ -1379,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>太空飛機</t>
+    <t>太空飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
   </si>
   <si>
-    <t>機器人太空船</t>
+    <t>机器人太空船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E5%8D%AB%E6%98%9F</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>探測車</t>
+    <t>探测车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Self-replicating_spacecraft</t>
@@ -1487,13 +1475,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>亞軌道太空飛行</t>
+    <t>亚轨道太空飞行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orbital_spaceflight</t>
@@ -1517,13 +1505,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E9%9A%9B%E8%88%AA%E8%A1%8C</t>
   </si>
   <si>
-    <t>行星際航行</t>
+    <t>行星际航行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%86%E6%98%9F%E9%9A%9B%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>恆星際旅行</t>
+    <t>恒星际旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%B3%BB%E9%99%85%E6%97%85%E8%A1%8C</t>
@@ -1559,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%AE%87%E5%AE%99%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>韓國航空宇宙研究院</t>
+    <t>韩国航空宇宙研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -1571,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%AA%E5%A4%A9%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國航天科技集團</t>
+    <t>中国航天科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%88%AA%E5%A4%A9%E7%A7%91%E5%B7%A5%E9%9B%86%E5%9B%A2</t>
@@ -1583,19 +1571,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%BC%89%E4%BA%BA%E8%88%AA%E5%A4%A9%E5%B7%A5%E7%A8%8B%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中國載人航天工程辦公室</t>
+    <t>中国载人航天工程办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國家太空中心 (中華民國)</t>
+    <t>国家太空中心 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%9C%8B%E5%AE%B6%E5%AE%87%E5%AE%99%E9%96%8B%E7%99%BC%E5%B1%80</t>
   </si>
   <si>
-    <t>朝鮮國家宇宙開發局</t>
+    <t>朝鲜国家宇宙开发局</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Lembaga_Penerbangan_dan_Antariksa_Nasional</t>
@@ -1625,19 +1613,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>法國國家太空研究中心</t>
+    <t>法国国家太空研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>德國航空太空中心</t>
+    <t>德国航空太空中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>義大利太空總署</t>
+    <t>义大利太空总署</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/Rymdstyrelsen</t>
@@ -1649,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%88%AA%E5%A4%AA</t>
   </si>
   <si>
-    <t>俄羅斯航太</t>
+    <t>俄罗斯航太</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/%D0%94%D0%B5%D1%80%D0%B6%D0%B0%D0%B2%D0%BD%D0%B5_%D0%BA%D0%BE%D1%81%D0%BC%D1%96%D1%87%D0%BD%D0%B5_%D0%B0%D0%B3%D0%B5%D0%BD%D1%82%D1%81%D1%82%D0%B2%D0%BE_%D0%A3%D0%BA%D1%80%D0%B0%D1%97%D0%BD%D0%B8</t>
@@ -1691,13 +1679,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>印度太空研究組織</t>
+    <t>印度太空研究组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X-15%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-15試驗機</t>
+    <t>X-15试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD-%E5%92%8C%E5%B9%B3%E5%8F%B7%E8%AE%A1%E5%88%92</t>
@@ -1709,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>美國太空梭計劃</t>
+    <t>美国太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E6%9C%80%E6%97%A9%E8%BF%9B%E5%85%A5%E5%A4%AA%E7%A9%BA%E8%AE%A1%E5%88%92</t>
@@ -1727,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/X-20%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-20試驗機</t>
+    <t>X-20试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%8E%A2%E6%B5%8B</t>
@@ -1739,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%85%E8%80%85%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先驅者計劃</t>
+    <t>先驱者计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%8F%B7%E7%B3%BB%E5%88%97%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1751,25 +1739,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>游騎兵計畫</t>
+    <t>游骑兵计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E5%99%A8%E8%99%9F%E7%B3%BB%E5%88%97%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>探測器號系列探測器</t>
+    <t>探测器号系列探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>測量員計畫</t>
+    <t>测量员计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>月球軌道計畫</t>
+    <t>月球轨道计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%8E%A2%E6%9C%88%E5%B7%A5%E7%A8%8B</t>
@@ -1811,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E5%99%A85%E8%99%9F</t>
   </si>
   <si>
-    <t>探測器5號</t>
+    <t>探测器5号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Zond_6</t>
@@ -1841,7 +1829,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%98%E6%9C%9B%E8%99%9F</t>
   </si>
   <si>
-    <t>願望號</t>
+    <t>愿望号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E5%B0%BC-%E6%83%A0%E6%9B%B4%E6%96%AF%E5%8F%B7</t>
@@ -1919,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E6%B1%80%E8%99%9F</t>
   </si>
   <si>
-    <t>克萊門汀號</t>
+    <t>克莱门汀号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%8E%A2%E5%8B%98%E8%80%85</t>
@@ -1973,13 +1961,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8A%9B%E5%9B%9E%E6%BA%AF%E5%8F%8A%E5%85%A7%E9%83%A8%E7%B5%90%E6%A7%8B%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>重力回溯及內部結構實驗室</t>
+    <t>重力回溯及内部结构实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%A4%A7%E6%B0%A3%E8%88%87%E7%B2%89%E5%A1%B5%E7%92%B0%E5%A2%83%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>月球大氣與粉塵環境探測器</t>
+    <t>月球大气与粉尘环境探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%832%E5%8F%B7</t>
@@ -2027,61 +2015,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B53%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵3號</t>
+    <t>游骑兵3号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B54%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵4號</t>
+    <t>游骑兵4号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B55%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵5號</t>
+    <t>游骑兵5号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B56%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵6號</t>
+    <t>游骑兵6号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B57%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵7號</t>
+    <t>游骑兵7号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B58%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵8號</t>
+    <t>游骑兵8号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B59%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵9號</t>
+    <t>游骑兵9号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A11%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員1號</t>
+    <t>测量员1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A16%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員6號</t>
+    <t>测量员6号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A17%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員7號</t>
+    <t>测量员7号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%9D%91%E8%A7%82%E6%B5%8B%E5%92%8C%E4%BC%A0%E6%84%9F%E5%8D%AB%E6%98%9F</t>
@@ -2165,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%99%E5%85%89%E5%A5%B3%E7%A5%9E%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>曙光女神計劃</t>
+    <t>曙光女神计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B5%E7%89%9B%E6%98%9F%E5%8F%B7</t>
@@ -2201,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%85%A7%E9%83%A8%E6%A7%8B%E9%80%A0</t>
   </si>
   <si>
-    <t>月球內部構造</t>
+    <t>月球内部构造</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gravitation_of_the_Moon</t>
@@ -2225,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%A4%A7%E6%B0%A3%E5%B1%A4</t>
   </si>
   <si>
-    <t>月球大氣層</t>
+    <t>月球大气层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E9%92%A0%E5%B0%BE</t>
@@ -2243,7 +2231,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93</t>
   </si>
   <si>
-    <t>月球軌道</t>
+    <t>月球轨道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%9B%B8</t>
@@ -2261,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E6%9C%88%E5%91%A8%E6%9C%9F</t>
   </si>
   <si>
-    <t>滿月周期</t>
+    <t>满月周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9C%88</t>
@@ -2273,13 +2261,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%B9%B3%E5%8B%95</t>
   </si>
   <si>
-    <t>天平動</t>
+    <t>天平动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E4%BA%A4%E9%BB%9E</t>
   </si>
   <si>
-    <t>月球交點</t>
+    <t>月球交点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%97%A5%E9%A3%9F</t>
@@ -2351,13 +2339,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5-%E8%89%BE%E6%89%98%E8%82%AF%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>南極-艾托肯盆地</t>
+    <t>南极-艾托肯盆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%85%8B%E7%88%BE%E9%A0%93%E5%9D%91</t>
   </si>
   <si>
-    <t>沙克爾頓坑</t>
+    <t>沙克尔顿坑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lunar_water</t>
@@ -2387,7 +2375,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A2%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>太空風化</t>
+    <t>太空风化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E7%9E%AC%E5%8F%98%E7%8E%B0%E8%B1%A1</t>
@@ -2399,7 +2387,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%9C%B0%E8%B3%AA</t>
   </si>
   <si>
-    <t>月球地質</t>
+    <t>月球地质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%9C%B0%E8%B4%A8%E5%B9%B4%E4%BB%A3</t>
@@ -2411,13 +2399,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A2%B0%E6%92%9E%E8%AA%AA</t>
   </si>
   <si>
-    <t>大碰撞說</t>
+    <t>大碰撞说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
-    <t>月球隕石</t>
+    <t>月球陨石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%99%AE%E7%9F%BF%E7%89%A9</t>
@@ -2441,19 +2429,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%9C%9F%E9%87%8D%E8%BD%9F%E7%82%B8%E6%9C%9F</t>
   </si>
   <si>
-    <t>後期重轟炸期</t>
+    <t>后期重轰炸期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%A7%80%E6%B8%AC</t>
   </si>
   <si>
-    <t>月球觀測</t>
+    <t>月球观测</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>月球旅遊</t>
+    <t>月球旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%A3%9F</t>
@@ -2477,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E6%9C%88%E4%BA%AE</t>
   </si>
   <si>
-    <t>超級月亮</t>
+    <t>超级月亮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%9A%84%E5%8D%AB%E6%98%9F</t>
@@ -2489,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%A1%8C%E6%98%9F</t>
   </si>
   <si>
-    <t>雙行星</t>
+    <t>双行星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B4%E5%8E%86</t>
@@ -2501,19 +2489,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E9%8C%AF%E8%A6%BA</t>
   </si>
   <si>
-    <t>月球錯覺</t>
+    <t>月球错觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%AB%AE%E8%A9%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家航空諮詢委員會</t>
+    <t>美国国家航空谘询委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國家航空暨太空法案</t>
+    <t>美国国家航空暨太空法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%E6%96%AF%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -2525,19 +2513,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E5%99%A8%E8%A3%9D%E9%85%8D%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>航天器裝配大樓</t>
+    <t>航天器装配大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>水手號計劃</t>
+    <t>水手号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先鋒計劃</t>
+    <t>先锋计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%8F%B7</t>
@@ -2555,13 +2543,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E5%81%B5%E5%AF%9F%E5%85%B5%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>火星偵察兵計劃</t>
+    <t>火星侦察兵计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E6%81%86%E6%98%9F%E5%85%B1%E5%AD%98</t>
   </si>
   <si>
-    <t>與恆星共存</t>
+    <t>与恒星共存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9E%8B%E8%BD%A8%E9%81%93%E5%A4%A9%E6%96%87%E5%8F%B0%E8%AE%A1%E5%88%92</t>
@@ -2579,19 +2567,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B6%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>航海家計畫</t>
+    <t>航海家计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>發現計劃</t>
+    <t>发现计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E7%95%8C%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>新疆界計畫</t>
+    <t>新疆界计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E6%8E%A2%E6%B5%8B%E6%BC%AB%E6%B8%B8%E8%80%85</t>
@@ -2603,7 +2591,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>次軌道太空飛行</t>
+    <t>次轨道太空飞行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%EF%BC%8D%E5%92%8C%E5%B9%B3%E5%8F%B7%E8%AE%A1%E5%88%92</t>
@@ -2627,7 +2615,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%83%8C%E6%99%AF%E6%8E%A2%E6%B8%AC%E8%80%85</t>
   </si>
   <si>
-    <t>宇宙背景探測者</t>
+    <t>宇宙背景探测者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%98%9F-%E7%BA%A2%E7%9F%B33%E5%8F%B7</t>
@@ -2645,7 +2633,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%93%B2%E5%80%AB%E8%99%9F%E9%87%91%E6%98%9F%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>麥哲倫號金星探測器</t>
+    <t>麦哲伦号金星探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%B1%E8%80%8510%E5%8F%B7</t>
@@ -2693,13 +2681,13 @@
     <t>https://zh.wikipedia.org/wiki/2001%E7%81%AB%E6%98%9F%E5%A5%A7%E5%BE%B7%E8%B3%BD%E8%99%9F</t>
   </si>
   <si>
-    <t>2001火星奧德賽號</t>
+    <t>2001火星奥德赛号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%99%E5%85%89%E8%99%9F</t>
   </si>
   <si>
-    <t>曙光號</t>
+    <t>曙光号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A7%86%E9%87%8E%E5%8F%B7</t>
@@ -2711,7 +2699,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8D%9C%E5%8B%92%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>克卜勒太空望遠鏡</t>
+    <t>克卜勒太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%8B%83%E7%A9%BA%E9%97%B4%E6%9C%9B%E8%BF%9C%E9%95%9C</t>
@@ -2723,7 +2711,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E5%93%B2%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>史匹哲太空望遠鏡</t>
+    <t>史匹哲太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A9%AC%E7%AC%AC%E9%AB%98%E8%83%BD%E5%A4%AA%E9%98%B3%E5%85%89%E8%B0%B1%E6%88%90%E5%83%8F%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -2741,7 +2729,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%A5%87%E8%99%9F</t>
   </si>
   <si>
-    <t>好奇號</t>
+    <t>好奇号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E9%81%87%E5%8F%B7</t>
@@ -2759,13 +2747,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%89%BE%E5%80%AB%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>范艾倫探測器</t>
+    <t>范艾伦探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%8B%95%E5%8A%9B%E5%AD%B8%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
-    <t>太陽動力學天文台</t>
+    <t>太阳动力学天文台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E8%AF%BA%E5%8F%B7</t>
@@ -2789,7 +2777,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B61%E8%99%9F</t>
   </si>
   <si>
-    <t>航海家1號</t>
+    <t>航海家1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%80%852%E5%8F%B7</t>
@@ -2801,7 +2789,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B4%85%E5%A4%96%E7%B7%9A%E5%B7%A1%E5%A4%A9%E6%8E%A2%E6%B8%AC%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>廣域紅外線巡天探測衛星</t>
+    <t>广域红外线巡天探测卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MAVEN</t>
@@ -2819,7 +2807,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E5%AF%9F%E8%99%9F</t>
   </si>
   <si>
-    <t>洞察號</t>
+    <t>洞察号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OSIRIS-REx</t>
@@ -2831,7 +2819,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F2020%E6%8E%A2%E6%B8%AC%E8%BB%8A%E4%BB%BB%E5%8B%99</t>
   </si>
   <si>
-    <t>火星2020探測車任務</t>
+    <t>火星2020探测车任务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E7%A9%BA%E7%BD%91%E7%BB%9C</t>
@@ -2855,7 +2843,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2867,7 +2855,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4688,7 +4676,7 @@
         <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -4714,10 +4702,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -4743,10 +4731,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -4772,10 +4760,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4801,10 +4789,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>7</v>
@@ -4830,10 +4818,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -4859,10 +4847,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4917,10 +4905,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4946,10 +4934,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>15</v>
@@ -4975,10 +4963,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>174</v>
@@ -5004,10 +4992,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5062,10 +5050,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>14</v>
@@ -5091,10 +5079,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5120,10 +5108,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="G66" t="n">
         <v>8</v>
@@ -5149,10 +5137,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5178,10 +5166,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>9</v>
@@ -5207,10 +5195,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -5236,10 +5224,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -5265,10 +5253,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -5294,10 +5282,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5323,10 +5311,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5352,10 +5340,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -5381,10 +5369,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G75" t="n">
         <v>17</v>
@@ -5410,10 +5398,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="G76" t="n">
         <v>19</v>
@@ -5439,10 +5427,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
         <v>13</v>
@@ -5468,10 +5456,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G78" t="n">
         <v>14</v>
@@ -5497,10 +5485,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
         <v>14</v>
@@ -5526,10 +5514,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>15</v>
@@ -5584,10 +5572,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5613,10 +5601,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -5642,10 +5630,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -5700,10 +5688,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G86" t="n">
         <v>46</v>
@@ -5729,10 +5717,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5758,10 +5746,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5787,10 +5775,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F89" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="G89" t="n">
         <v>15</v>
@@ -5816,10 +5804,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" t="s">
         <v>117</v>
-      </c>
-      <c r="F90" t="s">
-        <v>118</v>
       </c>
       <c r="G90" t="n">
         <v>385</v>
@@ -5845,10 +5833,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G91" t="n">
         <v>7</v>
@@ -5874,10 +5862,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F92" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G92" t="n">
         <v>9</v>
@@ -5903,10 +5891,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5932,10 +5920,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5961,10 +5949,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5990,10 +5978,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G96" t="n">
         <v>11</v>
@@ -6019,10 +6007,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -6048,10 +6036,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6077,10 +6065,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G99" t="n">
         <v>9</v>
@@ -6106,10 +6094,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6135,10 +6123,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6164,10 +6152,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G102" t="n">
         <v>10</v>
@@ -6193,10 +6181,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F103" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6222,10 +6210,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6251,10 +6239,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -6280,10 +6268,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6309,10 +6297,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6338,10 +6326,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -6367,10 +6355,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6396,10 +6384,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6425,10 +6413,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F111" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6454,10 +6442,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6512,10 +6500,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6541,10 +6529,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6570,10 +6558,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F116" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6599,10 +6587,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F117" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6628,10 +6616,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F118" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6657,10 +6645,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F119" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6686,10 +6674,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F120" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6715,10 +6703,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F121" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6744,10 +6732,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F122" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6773,10 +6761,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F123" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6802,10 +6790,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F124" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6831,10 +6819,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6860,10 +6848,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6889,10 +6877,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6918,10 +6906,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6947,10 +6935,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F129" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -7005,10 +6993,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F131" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7034,10 +7022,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F132" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7063,10 +7051,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F133" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -7092,10 +7080,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F134" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7121,10 +7109,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F135" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7150,10 +7138,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F136" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7179,10 +7167,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F137" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7208,10 +7196,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F138" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7237,10 +7225,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F139" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7266,10 +7254,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F140" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7295,10 +7283,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F141" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G141" t="n">
         <v>11</v>
@@ -7324,10 +7312,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F142" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7353,10 +7341,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F143" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -7382,10 +7370,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F144" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7411,10 +7399,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F145" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G145" t="n">
         <v>40</v>
@@ -7440,10 +7428,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F146" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7469,10 +7457,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F147" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G147" t="n">
         <v>8</v>
@@ -7498,10 +7486,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F148" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7527,10 +7515,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7556,10 +7544,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F150" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7585,10 +7573,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F151" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7614,10 +7602,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F152" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G152" t="n">
         <v>11</v>
@@ -7643,10 +7631,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F153" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7672,10 +7660,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F154" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7701,10 +7689,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F155" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7730,10 +7718,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F156" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7759,10 +7747,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F157" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7788,10 +7776,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F158" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7817,10 +7805,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F159" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7846,10 +7834,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F160" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7875,10 +7863,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F161" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7904,10 +7892,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F162" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7933,10 +7921,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F163" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7962,10 +7950,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F164" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7991,10 +7979,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F165" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8049,10 +8037,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F167" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8078,10 +8066,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F168" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8107,10 +8095,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F169" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8139,7 +8127,7 @@
         <v>99</v>
       </c>
       <c r="F170" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8165,10 +8153,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8194,10 +8182,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -8223,10 +8211,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F173" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8252,10 +8240,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G174" t="n">
         <v>100</v>
@@ -8281,10 +8269,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8310,10 +8298,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8339,10 +8327,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8368,10 +8356,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F178" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8397,10 +8385,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F179" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8426,10 +8414,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F180" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8455,10 +8443,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F181" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8484,10 +8472,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F182" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8513,10 +8501,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F183" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8542,10 +8530,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F184" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8571,10 +8559,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F185" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8600,10 +8588,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F186" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8629,10 +8617,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F187" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8658,10 +8646,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F188" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8687,10 +8675,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F189" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8716,10 +8704,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F190" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8745,10 +8733,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F191" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8774,10 +8762,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F192" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8803,10 +8791,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F193" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8832,10 +8820,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F194" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8861,10 +8849,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F195" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8890,10 +8878,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F196" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8919,10 +8907,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F197" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8948,10 +8936,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F198" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8977,10 +8965,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F199" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9006,10 +8994,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F200" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9035,10 +9023,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F201" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9064,10 +9052,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F202" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9093,10 +9081,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9122,10 +9110,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9151,10 +9139,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9180,10 +9168,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9209,10 +9197,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9238,10 +9226,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F208" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9267,10 +9255,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F209" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9296,10 +9284,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F210" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9325,10 +9313,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F211" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -9354,10 +9342,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F212" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9383,10 +9371,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F213" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9412,10 +9400,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F214" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9441,10 +9429,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F215" t="s">
-        <v>396</v>
+        <v>8</v>
       </c>
       <c r="G215" t="n">
         <v>13</v>
@@ -9470,10 +9458,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F216" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9499,10 +9487,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9528,10 +9516,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9557,10 +9545,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F219" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9586,10 +9574,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F220" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -9615,10 +9603,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F221" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9644,10 +9632,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9673,10 +9661,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F223" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9702,10 +9690,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F224" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9731,10 +9719,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9760,10 +9748,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F226" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9789,10 +9777,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F227" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9818,10 +9806,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F228" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9847,10 +9835,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F229" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9876,10 +9864,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F230" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9905,10 +9893,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F231" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9934,10 +9922,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F232" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9963,10 +9951,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F233" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9992,10 +9980,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10021,10 +10009,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F235" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10050,10 +10038,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F236" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -10079,10 +10067,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10137,10 +10125,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F239" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10166,10 +10154,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F240" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10195,10 +10183,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F241" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10224,10 +10212,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G242" t="n">
         <v>4</v>
@@ -10253,10 +10241,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10282,10 +10270,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F244" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G244" t="n">
         <v>4</v>
@@ -10311,10 +10299,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F245" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10340,10 +10328,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F246" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10369,10 +10357,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10398,10 +10386,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F248" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10427,10 +10415,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F249" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10456,10 +10444,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F250" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10485,10 +10473,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F251" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10514,10 +10502,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F252" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10543,10 +10531,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F253" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10572,10 +10560,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F254" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10601,10 +10589,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F255" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10630,10 +10618,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F256" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10659,10 +10647,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F257" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10688,10 +10676,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F258" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10717,10 +10705,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F259" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10746,10 +10734,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F260" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10775,10 +10763,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F261" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10804,10 +10792,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F262" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10833,10 +10821,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10862,10 +10850,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F264" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -10891,10 +10879,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F265" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10920,10 +10908,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F266" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10949,10 +10937,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F267" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10978,10 +10966,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F268" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11007,10 +10995,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F269" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11036,10 +11024,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11065,10 +11053,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11094,10 +11082,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F272" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G272" t="n">
         <v>6</v>
@@ -11123,10 +11111,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F273" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11152,10 +11140,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F274" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11181,10 +11169,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F275" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11210,10 +11198,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F276" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11239,10 +11227,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11268,10 +11256,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11297,10 +11285,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11326,10 +11314,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11355,10 +11343,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11384,10 +11372,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11413,10 +11401,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11442,10 +11430,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>106</v>
+      </c>
+      <c r="F284" t="s">
         <v>107</v>
-      </c>
-      <c r="F284" t="s">
-        <v>108</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11471,10 +11459,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11500,10 +11488,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11529,10 +11517,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11558,10 +11546,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F288" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11587,10 +11575,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11616,10 +11604,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F290" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11645,10 +11633,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11674,10 +11662,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11703,10 +11691,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11732,10 +11720,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11761,10 +11749,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F295" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11790,10 +11778,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F296" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11819,10 +11807,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F297" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11848,10 +11836,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F298" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11877,10 +11865,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F299" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11906,10 +11894,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F300" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11964,10 +11952,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11993,10 +11981,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -12022,10 +12010,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12051,10 +12039,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -12080,10 +12068,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12109,10 +12097,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12138,10 +12126,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12167,10 +12155,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12196,10 +12184,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F310" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12225,10 +12213,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F311" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12254,10 +12242,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F312" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12283,10 +12271,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F313" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12312,10 +12300,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F314" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12341,10 +12329,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F315" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12370,10 +12358,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F316" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12399,10 +12387,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F317" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G317" t="n">
         <v>24</v>
@@ -12428,10 +12416,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12457,10 +12445,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G319" t="n">
         <v>30</v>
@@ -12486,10 +12474,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F320" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12515,10 +12503,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F321" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G321" t="n">
         <v>26</v>
@@ -12544,10 +12532,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12573,10 +12561,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F323" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12602,10 +12590,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F324" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12631,10 +12619,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F325" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12660,10 +12648,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F326" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12689,10 +12677,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F327" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12718,10 +12706,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F328" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12747,10 +12735,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12776,10 +12764,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
         <v>44</v>
@@ -12805,10 +12793,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F331" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12834,10 +12822,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F332" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G332" t="n">
         <v>20</v>
@@ -12863,10 +12851,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F333" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G333" t="n">
         <v>17</v>
@@ -12892,10 +12880,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F334" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12921,10 +12909,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F335" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12950,10 +12938,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F336" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12979,10 +12967,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F337" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G337" t="n">
         <v>30</v>
@@ -13008,10 +12996,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F338" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13037,10 +13025,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F339" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13066,10 +13054,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F340" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13095,10 +13083,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F341" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13124,10 +13112,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F342" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13153,10 +13141,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F343" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13182,10 +13170,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F344" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13211,10 +13199,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F345" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13240,10 +13228,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F346" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13269,10 +13257,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F347" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13298,10 +13286,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F348" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13327,10 +13315,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F349" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13356,10 +13344,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F350" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13385,10 +13373,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F351" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13414,10 +13402,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F352" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13443,10 +13431,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F353" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13472,10 +13460,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F354" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -13501,10 +13489,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F355" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13530,10 +13518,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F356" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13559,10 +13547,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F357" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13588,10 +13576,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F358" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13617,10 +13605,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F359" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13646,10 +13634,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F360" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13675,10 +13663,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F361" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13704,10 +13692,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F362" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13733,10 +13721,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F363" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13762,10 +13750,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F364" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13791,10 +13779,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F365" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13820,10 +13808,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F366" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13849,10 +13837,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F367" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G367" t="n">
         <v>20</v>
@@ -13878,10 +13866,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F368" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G368" t="n">
         <v>36</v>
@@ -13907,10 +13895,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F369" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13936,10 +13924,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F370" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13965,10 +13953,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F371" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13994,10 +13982,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F372" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14023,10 +14011,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F373" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14052,10 +14040,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F374" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -14081,10 +14069,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F375" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14110,10 +14098,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>120</v>
+      </c>
+      <c r="F376" t="s">
         <v>121</v>
-      </c>
-      <c r="F376" t="s">
-        <v>122</v>
       </c>
       <c r="G376" t="n">
         <v>17</v>
@@ -14139,10 +14127,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F377" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14168,10 +14156,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F378" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14197,10 +14185,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F379" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14226,10 +14214,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F380" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14255,10 +14243,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F381" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14284,10 +14272,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F382" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14313,10 +14301,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F383" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14342,10 +14330,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F384" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14371,10 +14359,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F385" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14400,10 +14388,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F386" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14429,10 +14417,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F387" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G387" t="n">
         <v>4</v>
@@ -14458,10 +14446,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F388" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14487,10 +14475,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F389" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14516,10 +14504,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F390" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14545,10 +14533,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F391" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14574,10 +14562,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F392" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -14603,10 +14591,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F393" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14632,10 +14620,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F394" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14661,10 +14649,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F395" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14690,10 +14678,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F396" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14719,10 +14707,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F397" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14748,10 +14736,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F398" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14777,10 +14765,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F399" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G399" t="n">
         <v>4</v>
@@ -14806,10 +14794,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F400" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14835,10 +14823,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F401" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14864,10 +14852,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F402" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14893,10 +14881,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F403" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14922,10 +14910,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F404" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14951,10 +14939,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F405" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14980,10 +14968,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F406" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15009,10 +14997,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F407" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15038,10 +15026,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F408" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15067,10 +15055,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F409" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15096,10 +15084,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F410" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15125,10 +15113,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F411" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15154,10 +15142,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F412" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15183,10 +15171,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F413" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15212,10 +15200,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F414" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G414" t="n">
         <v>14</v>
@@ -15241,10 +15229,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F415" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15270,10 +15258,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F416" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15299,10 +15287,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F417" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15328,10 +15316,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F418" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15357,10 +15345,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F419" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15386,10 +15374,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F420" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15415,10 +15403,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F421" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15444,10 +15432,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F422" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15473,10 +15461,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F423" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15502,10 +15490,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F424" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15531,10 +15519,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F425" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15560,10 +15548,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F426" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15589,10 +15577,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F427" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G427" t="n">
         <v>5</v>
@@ -15618,10 +15606,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F428" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15647,10 +15635,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F429" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15676,10 +15664,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F430" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15705,10 +15693,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F431" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15734,10 +15722,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F432" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15763,10 +15751,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F433" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15792,10 +15780,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F434" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15821,10 +15809,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F435" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15850,10 +15838,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F436" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15879,10 +15867,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F437" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -15908,10 +15896,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F438" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15937,10 +15925,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F439" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15966,10 +15954,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F440" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15995,10 +15983,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F441" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16024,10 +16012,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F442" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16053,10 +16041,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F443" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16082,10 +16070,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>116</v>
+      </c>
+      <c r="F444" t="s">
         <v>117</v>
-      </c>
-      <c r="F444" t="s">
-        <v>118</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16111,10 +16099,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F445" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16140,10 +16128,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F446" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G446" t="n">
         <v>6</v>
@@ -16169,10 +16157,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F447" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16198,10 +16186,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F448" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16227,10 +16215,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F449" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16256,10 +16244,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F450" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16285,10 +16273,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F451" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16314,10 +16302,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F452" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16343,10 +16331,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F453" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16372,10 +16360,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F454" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16401,10 +16389,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F455" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16430,10 +16418,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F456" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16459,10 +16447,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F457" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16488,10 +16476,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F458" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16517,10 +16505,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F459" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16546,10 +16534,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F460" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16575,10 +16563,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F461" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16604,10 +16592,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F462" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16633,10 +16621,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F463" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16662,10 +16650,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F464" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16691,10 +16679,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F465" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -16720,10 +16708,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F466" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16749,10 +16737,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F467" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16778,10 +16766,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F468" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -16807,10 +16795,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F469" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16836,10 +16824,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F470" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16865,10 +16853,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F471" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16894,10 +16882,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F472" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16923,10 +16911,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F473" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16952,10 +16940,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F474" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16981,10 +16969,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F475" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G475" t="n">
         <v>42</v>
@@ -17010,10 +16998,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F476" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17039,10 +17027,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F477" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17068,10 +17056,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F478" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17097,10 +17085,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F479" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17126,10 +17114,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F480" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17155,10 +17143,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F481" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17184,10 +17172,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F482" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17213,10 +17201,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F483" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17242,10 +17230,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F484" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17271,10 +17259,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F485" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17300,10 +17288,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F486" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17329,10 +17317,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F487" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17358,10 +17346,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F488" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17387,10 +17375,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F489" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17416,10 +17404,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F490" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17445,10 +17433,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F491" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17474,10 +17462,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F492" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17503,10 +17491,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F493" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17532,10 +17520,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F494" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17561,10 +17549,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F495" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17590,10 +17578,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F496" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17619,10 +17607,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F497" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17648,10 +17636,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F498" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17677,10 +17665,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F499" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17706,10 +17694,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F500" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17735,10 +17723,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F501" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17764,10 +17752,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F502" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17793,10 +17781,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F503" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17822,10 +17810,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F504" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17851,10 +17839,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F505" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -17880,10 +17868,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F506" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G506" t="n">
         <v>4</v>
@@ -17909,10 +17897,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F507" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -17938,10 +17926,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F508" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G508" t="n">
         <v>3</v>
@@ -17967,10 +17955,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F509" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -17996,10 +17984,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F510" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
